--- a/mock_input_data.xlsx
+++ b/mock_input_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryandonlan/Desktop/Colaberry/Plotly Dash Heroku/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0055E36B-6AB7-424B-818A-D0DEC2F4BDAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD57383-CF02-A846-8FEA-42E1D6DA51C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{B1FC7572-B0DB-DA42-BCB3-4809BA3E410A}"/>
+    <workbookView xWindow="780" yWindow="460" windowWidth="32460" windowHeight="19280" activeTab="1" xr2:uid="{B1FC7572-B0DB-DA42-BCB3-4809BA3E410A}"/>
   </bookViews>
   <sheets>
     <sheet name="Solver Team Data" sheetId="1" r:id="rId1"/>
@@ -11458,6 +11458,16 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27.83203125" customWidth="1"/>
+    <col min="2" max="2" width="36" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" customWidth="1"/>
+    <col min="4" max="4" width="48.6640625" customWidth="1"/>
+    <col min="5" max="5" width="26.5" customWidth="1"/>
+    <col min="6" max="6" width="39.1640625" customWidth="1"/>
+    <col min="7" max="7" width="28.83203125" customWidth="1"/>
+    <col min="8" max="8" width="30.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
